--- a/期限利差2020.xlsx
+++ b/期限利差2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qyzc\专题\收益率曲线陡平\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qyzc\Topic\YieldCurveTrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2A323-379D-4134-9EEC-1B0E94D21323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8E5F5-3CD2-42F8-8C4D-3BBFDAA4BA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$210</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="209"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -914,16 +914,88 @@
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$215</c:f>
+              <c:f>Sheet1!$P$2:$P$234</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000_ </c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>24.609999999999978</c:v>
                 </c:pt>
@@ -1565,6 +1637,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>13.089999999999957</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>12.250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>11.450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>12.989999999999968</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>14.739999999999975</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>14.860000000000007</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>18.630000000000013</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>17.660000000000011</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>17.520000000000024</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>15.049999999999963</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>14.69999999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13.980000000000015</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>14.439999999999964</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>15.180000000000016</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15.730000000000022</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15.49999999999998</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15.179999999999971</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>17.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19.689999999999984</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>17.730000000000025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,10 +1736,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$210</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="209"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -2237,16 +2366,88 @@
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$215</c:f>
+              <c:f>Sheet1!$Q$2:$Q$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>60.800000000000011</c:v>
                 </c:pt>
@@ -2888,6 +3089,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>21.229999999999993</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>19.710000000000029</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>19.160000000000021</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>20.209999999999972</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>22.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>23.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>28.130000000000031</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>28.699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>28.03</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>26.379999999999981</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>26.799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>28.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32.229999999999983</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>32.049999999999955</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>34.210000000000029</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>39.190000000000012</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>40.840000000000032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,10 +3198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$215</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -3585,16 +3843,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$215</c:f>
+              <c:f>Sheet1!$D$2:$D$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2.5419999999999998</c:v>
                 </c:pt>
@@ -4236,6 +4551,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.1181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.0983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.0678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0564</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.0606</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.9611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.9781</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.0173000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.0232999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.0116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.9897</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.9805000000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.9337</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.9679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.9698000000000002</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.9331999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.8860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.8742999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,10 +4647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$215</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -4920,16 +5292,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$215</c:f>
+              <c:f>Sheet1!$G$2:$G$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2.9039000000000001</c:v>
                 </c:pt>
@@ -5571,6 +6000,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.1996000000000002</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.1499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.1755</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.1352000000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.1515</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.0562</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.0884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.1223999999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.1371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.1183000000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.1377999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.1133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.1185</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.1027999999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.1352000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.1385000000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.0998999999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.0811000000000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.1053999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,10 +6096,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$215</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -6255,16 +6741,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$215</c:f>
+              <c:f>Sheet1!$L$2:$L$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="214"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>3.15</c:v>
                 </c:pt>
@@ -6906,6 +7449,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.3304999999999998</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.2724000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.2698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.2826</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.3001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.2425000000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.2650999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.2976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.2875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.2652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.2776000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.2576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.2703000000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.2601</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.2902</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.2902999999999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.2753000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.278</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.2827000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13090,10 +13690,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$222</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -13735,16 +14335,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$222</c:f>
+              <c:f>Sheet1!$D$2:$D$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2.5419999999999998</c:v>
                 </c:pt>
@@ -14386,6 +15043,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.1181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.0983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.0678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0564</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.0606</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.9611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.9781</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.0173000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.0232999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.0116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.9897</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.9805000000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.9337</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.9679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.9698000000000002</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.9331999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.8860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.8742999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14425,10 +15139,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$222</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -15070,16 +15784,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$222</c:f>
+              <c:f>Sheet1!$T$2:$T$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="221"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>1.47472</c:v>
                 </c:pt>
@@ -15721,6 +16492,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>1.9693799999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.8902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.8965599999999998</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.8668600000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7410799999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.5229600000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.3953200000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.1899799999999998</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.02864</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.95684000000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.0079600000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.0401400000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.13896</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.1983799999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2158600000000002</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.2888800000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.3568200000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.3758400000000002</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.36042</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.43492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15981,10 +16809,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$223</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -16626,16 +17454,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$223</c:f>
+              <c:f>Sheet1!$D$2:$D$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>2.5419999999999998</c:v>
                 </c:pt>
@@ -17277,6 +18162,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.1181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.0752999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.0983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.0678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0564</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.0606</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.9611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.9781</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.0173000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.0232999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.0015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.0116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.9897</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.9805000000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.9337</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.9679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.9698000000000002</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.9331999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.8860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.8742999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17316,10 +18258,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$223</c:f>
+              <c:f>Sheet1!$A$2:$A$234</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>43832</c:v>
                 </c:pt>
@@ -17961,16 +18903,73 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$223</c:f>
+              <c:f>Sheet1!$U$2:$U$234</c:f>
               <c:numCache>
                 <c:formatCode>###,###,###,###,##0.0000_ </c:formatCode>
-                <c:ptCount val="222"/>
+                <c:ptCount val="233"/>
                 <c:pt idx="1">
                   <c:v>2.9</c:v>
                 </c:pt>
@@ -18609,6 +19608,63 @@
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>3.3288000000000002</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.3416999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.3774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.3471000000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.3833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.3719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.3643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.2532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.2585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.2812999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.2812999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.3029000000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.2932999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.2023000000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.153</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.0213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22107,10 +23163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G234" sqref="A234:XFD234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35166,11 +36223,11 @@
         <v>3.8849999999999998</v>
       </c>
       <c r="P195" s="8">
-        <f t="shared" ref="P195:P215" si="6">(L195-G195)*100</f>
+        <f t="shared" ref="P195:P234" si="6">(L195-G195)*100</f>
         <v>16.63000000000001</v>
       </c>
       <c r="Q195" s="9">
-        <f t="shared" ref="Q195:Q215" si="7">(L195-D195)*100</f>
+        <f t="shared" ref="Q195:Q234" si="7">(L195-D195)*100</f>
         <v>32.65000000000002</v>
       </c>
       <c r="R195">
@@ -36496,9 +37553,1169 @@
         <v>3.3288000000000002</v>
       </c>
     </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B216" s="5">
+        <v>2.8881000000000001</v>
+      </c>
+      <c r="C216" s="5">
+        <v>2.9714</v>
+      </c>
+      <c r="D216" s="5">
+        <v>3.0752999999999999</v>
+      </c>
+      <c r="E216" s="5">
+        <v>3.0807000000000002</v>
+      </c>
+      <c r="F216" s="5">
+        <v>3.1046999999999998</v>
+      </c>
+      <c r="G216" s="5">
+        <v>3.1499000000000001</v>
+      </c>
+      <c r="H216" s="5">
+        <v>3.2797000000000001</v>
+      </c>
+      <c r="I216" s="5">
+        <v>3.3151999999999999</v>
+      </c>
+      <c r="J216" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="K216" s="5">
+        <v>3.2814000000000001</v>
+      </c>
+      <c r="L216" s="5">
+        <v>3.2724000000000002</v>
+      </c>
+      <c r="M216" s="5">
+        <v>3.7168000000000001</v>
+      </c>
+      <c r="N216" s="5">
+        <v>3.8353000000000002</v>
+      </c>
+      <c r="O216" s="5">
+        <v>3.9024999999999999</v>
+      </c>
+      <c r="P216" s="8">
+        <f t="shared" si="6"/>
+        <v>12.250000000000005</v>
+      </c>
+      <c r="Q216" s="9">
+        <f t="shared" si="7"/>
+        <v>19.710000000000029</v>
+      </c>
+      <c r="T216" s="11">
+        <v>1.8902999999999999</v>
+      </c>
+      <c r="U216" s="5">
+        <v>3.3416999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>44159</v>
+      </c>
+      <c r="B217" s="5">
+        <v>2.9432999999999998</v>
+      </c>
+      <c r="C217" s="5">
+        <v>2.9683999999999999</v>
+      </c>
+      <c r="D217" s="5">
+        <v>3.0983999999999998</v>
+      </c>
+      <c r="E217" s="5">
+        <v>3.1004999999999998</v>
+      </c>
+      <c r="F217" s="5">
+        <v>3.1259000000000001</v>
+      </c>
+      <c r="G217" s="5">
+        <v>3.1755</v>
+      </c>
+      <c r="H217" s="5">
+        <v>3.294</v>
+      </c>
+      <c r="I217" s="5">
+        <v>3.3254000000000001</v>
+      </c>
+      <c r="J217" s="5">
+        <v>3.3128000000000002</v>
+      </c>
+      <c r="K217" s="5">
+        <v>3.2974000000000001</v>
+      </c>
+      <c r="L217" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="M217" s="5">
+        <v>3.7174</v>
+      </c>
+      <c r="N217" s="5">
+        <v>3.8355000000000001</v>
+      </c>
+      <c r="O217" s="5">
+        <v>3.9075000000000002</v>
+      </c>
+      <c r="P217" s="8">
+        <f t="shared" si="6"/>
+        <v>11.450000000000005</v>
+      </c>
+      <c r="Q217" s="9">
+        <f t="shared" si="7"/>
+        <v>19.160000000000021</v>
+      </c>
+      <c r="T217" s="11">
+        <v>1.8965599999999998</v>
+      </c>
+      <c r="U217" s="5">
+        <v>3.3774999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>44160</v>
+      </c>
+      <c r="B218" s="5">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="C218" s="5">
+        <v>2.9502999999999999</v>
+      </c>
+      <c r="D218" s="5">
+        <v>3.0678000000000001</v>
+      </c>
+      <c r="E218" s="5">
+        <v>3.0834999999999999</v>
+      </c>
+      <c r="F218" s="5">
+        <v>3.1048</v>
+      </c>
+      <c r="G218" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="H218" s="5">
+        <v>3.2711999999999999</v>
+      </c>
+      <c r="I218" s="5">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="J218" s="5">
+        <v>3.2944</v>
+      </c>
+      <c r="K218" s="5">
+        <v>3.2778999999999998</v>
+      </c>
+      <c r="L218" s="5">
+        <v>3.2698999999999998</v>
+      </c>
+      <c r="M218" s="5">
+        <v>3.6922999999999999</v>
+      </c>
+      <c r="N218" s="5">
+        <v>3.8105000000000002</v>
+      </c>
+      <c r="O218" s="5">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="P218" s="8">
+        <f t="shared" si="6"/>
+        <v>12.989999999999968</v>
+      </c>
+      <c r="Q218" s="9">
+        <f t="shared" si="7"/>
+        <v>20.209999999999972</v>
+      </c>
+      <c r="T218" s="11">
+        <v>1.8668600000000002</v>
+      </c>
+      <c r="U218" s="5">
+        <v>3.3471000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B219" s="5">
+        <v>2.9799000000000002</v>
+      </c>
+      <c r="C219" s="5">
+        <v>2.9306000000000001</v>
+      </c>
+      <c r="D219" s="5">
+        <v>3.0564</v>
+      </c>
+      <c r="E219" s="5">
+        <v>3.0790000000000002</v>
+      </c>
+      <c r="F219" s="5">
+        <v>3.101</v>
+      </c>
+      <c r="G219" s="5">
+        <v>3.1352000000000002</v>
+      </c>
+      <c r="H219" s="5">
+        <v>3.2726000000000002</v>
+      </c>
+      <c r="I219" s="5">
+        <v>3.3108</v>
+      </c>
+      <c r="J219" s="5">
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="K219" s="5">
+        <v>3.2885</v>
+      </c>
+      <c r="L219" s="5">
+        <v>3.2826</v>
+      </c>
+      <c r="M219" s="5">
+        <v>3.6945000000000001</v>
+      </c>
+      <c r="N219" s="5">
+        <v>3.8115000000000001</v>
+      </c>
+      <c r="O219" s="5">
+        <v>3.895</v>
+      </c>
+      <c r="P219" s="8">
+        <f t="shared" si="6"/>
+        <v>14.739999999999975</v>
+      </c>
+      <c r="Q219" s="9">
+        <f t="shared" si="7"/>
+        <v>22.619999999999997</v>
+      </c>
+      <c r="T219" s="11">
+        <v>1.7410799999999997</v>
+      </c>
+      <c r="U219" s="5">
+        <v>3.3833000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>44162</v>
+      </c>
+      <c r="B220" s="5">
+        <v>2.9698000000000002</v>
+      </c>
+      <c r="C220" s="5">
+        <v>2.9106000000000001</v>
+      </c>
+      <c r="D220" s="5">
+        <v>3.0606</v>
+      </c>
+      <c r="E220" s="5">
+        <v>3.0817999999999999</v>
+      </c>
+      <c r="F220" s="5">
+        <v>3.1092</v>
+      </c>
+      <c r="G220" s="5">
+        <v>3.1515</v>
+      </c>
+      <c r="H220" s="5">
+        <v>3.2833000000000001</v>
+      </c>
+      <c r="I220" s="5">
+        <v>3.3189000000000002</v>
+      </c>
+      <c r="J220" s="5">
+        <v>3.3121</v>
+      </c>
+      <c r="K220" s="5">
+        <v>3.3039000000000001</v>
+      </c>
+      <c r="L220" s="5">
+        <v>3.3001</v>
+      </c>
+      <c r="M220" s="5">
+        <v>3.6995</v>
+      </c>
+      <c r="N220" s="5">
+        <v>3.8191999999999999</v>
+      </c>
+      <c r="O220" s="5">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="P220" s="8">
+        <f t="shared" si="6"/>
+        <v>14.860000000000007</v>
+      </c>
+      <c r="Q220" s="9">
+        <f t="shared" si="7"/>
+        <v>23.950000000000003</v>
+      </c>
+      <c r="T220" s="11">
+        <v>1.5229600000000001</v>
+      </c>
+      <c r="U220" s="5">
+        <v>3.3719999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B221" s="5">
+        <v>2.8895</v>
+      </c>
+      <c r="C221" s="5">
+        <v>2.8256999999999999</v>
+      </c>
+      <c r="D221" s="5">
+        <v>2.9611999999999998</v>
+      </c>
+      <c r="E221" s="5">
+        <v>2.9996</v>
+      </c>
+      <c r="F221" s="5">
+        <v>3.0226999999999999</v>
+      </c>
+      <c r="G221" s="5">
+        <v>3.0562</v>
+      </c>
+      <c r="H221" s="5">
+        <v>3.2092000000000001</v>
+      </c>
+      <c r="I221" s="5">
+        <v>3.2517999999999998</v>
+      </c>
+      <c r="J221" s="5">
+        <v>3.2484000000000002</v>
+      </c>
+      <c r="K221" s="5">
+        <v>3.2443</v>
+      </c>
+      <c r="L221" s="5">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="M221" s="5">
+        <v>3.6758999999999999</v>
+      </c>
+      <c r="N221" s="5">
+        <v>3.7932000000000001</v>
+      </c>
+      <c r="O221" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="P221" s="8">
+        <f t="shared" si="6"/>
+        <v>18.630000000000013</v>
+      </c>
+      <c r="Q221" s="9">
+        <f t="shared" si="7"/>
+        <v>28.130000000000031</v>
+      </c>
+      <c r="T221" s="11">
+        <v>1.3953200000000001</v>
+      </c>
+      <c r="U221" s="5">
+        <v>3.3643000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2.8203</v>
+      </c>
+      <c r="C222" s="5">
+        <v>2.8529</v>
+      </c>
+      <c r="D222" s="5">
+        <v>2.9781</v>
+      </c>
+      <c r="E222" s="5">
+        <v>3.0047999999999999</v>
+      </c>
+      <c r="F222" s="5">
+        <v>3.0379</v>
+      </c>
+      <c r="G222" s="5">
+        <v>3.0884999999999998</v>
+      </c>
+      <c r="H222" s="5">
+        <v>3.2395</v>
+      </c>
+      <c r="I222" s="5">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="J222" s="5">
+        <v>3.274</v>
+      </c>
+      <c r="K222" s="5">
+        <v>3.2679</v>
+      </c>
+      <c r="L222" s="5">
+        <v>3.2650999999999999</v>
+      </c>
+      <c r="M222" s="5">
+        <v>3.6778</v>
+      </c>
+      <c r="N222" s="5">
+        <v>3.7955000000000001</v>
+      </c>
+      <c r="O222" s="5">
+        <v>3.875</v>
+      </c>
+      <c r="P222" s="8">
+        <f t="shared" si="6"/>
+        <v>17.660000000000011</v>
+      </c>
+      <c r="Q222" s="9">
+        <f t="shared" si="7"/>
+        <v>28.699999999999992</v>
+      </c>
+      <c r="T222" s="11">
+        <v>1.1899799999999998</v>
+      </c>
+      <c r="U222" s="5">
+        <v>3.2532999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>44167</v>
+      </c>
+      <c r="B223" s="5">
+        <v>2.8601999999999999</v>
+      </c>
+      <c r="C223" s="5">
+        <v>2.8612000000000002</v>
+      </c>
+      <c r="D223" s="5">
+        <v>3.0173000000000001</v>
+      </c>
+      <c r="E223" s="5">
+        <v>3.0524</v>
+      </c>
+      <c r="F223" s="5">
+        <v>3.0813000000000001</v>
+      </c>
+      <c r="G223" s="5">
+        <v>3.1223999999999998</v>
+      </c>
+      <c r="H223" s="5">
+        <v>3.2581000000000002</v>
+      </c>
+      <c r="I223" s="5">
+        <v>3.2955999999999999</v>
+      </c>
+      <c r="J223" s="5">
+        <v>3.2963</v>
+      </c>
+      <c r="K223" s="5">
+        <v>3.2967</v>
+      </c>
+      <c r="L223" s="5">
+        <v>3.2976000000000001</v>
+      </c>
+      <c r="M223" s="5">
+        <v>3.6882000000000001</v>
+      </c>
+      <c r="N223" s="5">
+        <v>3.8073999999999999</v>
+      </c>
+      <c r="O223" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="P223" s="8">
+        <f t="shared" si="6"/>
+        <v>17.520000000000024</v>
+      </c>
+      <c r="Q223" s="9">
+        <f t="shared" si="7"/>
+        <v>28.03</v>
+      </c>
+      <c r="T223" s="11">
+        <v>1.02864</v>
+      </c>
+      <c r="U223" s="5">
+        <v>3.2585999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2.8601999999999999</v>
+      </c>
+      <c r="C224" s="5">
+        <v>2.8887</v>
+      </c>
+      <c r="D224" s="5">
+        <v>3.0232999999999999</v>
+      </c>
+      <c r="E224" s="5">
+        <v>3.0605000000000002</v>
+      </c>
+      <c r="F224" s="5">
+        <v>3.0931999999999999</v>
+      </c>
+      <c r="G224" s="5">
+        <v>3.1371000000000002</v>
+      </c>
+      <c r="H224" s="5">
+        <v>3.2547000000000001</v>
+      </c>
+      <c r="I224" s="5">
+        <v>3.2856000000000001</v>
+      </c>
+      <c r="J224" s="5">
+        <v>3.2863000000000002</v>
+      </c>
+      <c r="K224" s="5">
+        <v>3.2866</v>
+      </c>
+      <c r="L224" s="5">
+        <v>3.2875999999999999</v>
+      </c>
+      <c r="M224" s="5">
+        <v>3.6842000000000001</v>
+      </c>
+      <c r="N224" s="5">
+        <v>3.8058000000000001</v>
+      </c>
+      <c r="O224" s="5">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="P224" s="8">
+        <f t="shared" si="6"/>
+        <v>15.049999999999963</v>
+      </c>
+      <c r="Q224" s="9">
+        <f t="shared" si="7"/>
+        <v>26.43</v>
+      </c>
+      <c r="T224" s="11">
+        <v>0.95684000000000002</v>
+      </c>
+      <c r="U224" s="5">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>44169</v>
+      </c>
+      <c r="B225" s="5">
+        <v>2.8698000000000001</v>
+      </c>
+      <c r="C225" s="5">
+        <v>2.871</v>
+      </c>
+      <c r="D225" s="5">
+        <v>3.0015000000000001</v>
+      </c>
+      <c r="E225" s="5">
+        <v>3.0354999999999999</v>
+      </c>
+      <c r="F225" s="5">
+        <v>3.0705</v>
+      </c>
+      <c r="G225" s="5">
+        <v>3.1183000000000001</v>
+      </c>
+      <c r="H225" s="5">
+        <v>3.2357</v>
+      </c>
+      <c r="I225" s="5">
+        <v>3.2648999999999999</v>
+      </c>
+      <c r="J225" s="5">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="K225" s="5">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="L225" s="5">
+        <v>3.2652999999999999</v>
+      </c>
+      <c r="M225" s="5">
+        <v>3.6674000000000002</v>
+      </c>
+      <c r="N225" s="5">
+        <v>3.7896000000000001</v>
+      </c>
+      <c r="O225" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="P225" s="8">
+        <f t="shared" si="6"/>
+        <v>14.69999999999998</v>
+      </c>
+      <c r="Q225" s="9">
+        <f t="shared" si="7"/>
+        <v>26.379999999999981</v>
+      </c>
+      <c r="T225" s="11">
+        <v>1.0079600000000002</v>
+      </c>
+      <c r="U225" s="5">
+        <v>3.2812999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B226" s="5">
+        <v>2.8500999999999999</v>
+      </c>
+      <c r="C226" s="5">
+        <v>2.8635000000000002</v>
+      </c>
+      <c r="D226" s="5">
+        <v>3.0116000000000001</v>
+      </c>
+      <c r="E226" s="5">
+        <v>3.0438999999999998</v>
+      </c>
+      <c r="F226" s="5">
+        <v>3.0863</v>
+      </c>
+      <c r="G226" s="5">
+        <v>3.1377999999999999</v>
+      </c>
+      <c r="H226" s="5">
+        <v>3.2259000000000002</v>
+      </c>
+      <c r="I226" s="5">
+        <v>3.2799</v>
+      </c>
+      <c r="J226" s="5">
+        <v>3.2793000000000001</v>
+      </c>
+      <c r="K226" s="5">
+        <v>3.2780999999999998</v>
+      </c>
+      <c r="L226" s="5">
+        <v>3.2776000000000001</v>
+      </c>
+      <c r="M226" s="5">
+        <v>3.6705999999999999</v>
+      </c>
+      <c r="N226" s="5">
+        <v>3.7911999999999999</v>
+      </c>
+      <c r="O226" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="P226" s="8">
+        <f t="shared" si="6"/>
+        <v>13.980000000000015</v>
+      </c>
+      <c r="Q226" s="9">
+        <f t="shared" si="7"/>
+        <v>26.6</v>
+      </c>
+      <c r="T226" s="11">
+        <v>1.0401400000000001</v>
+      </c>
+      <c r="U226" s="5">
+        <v>3.2812999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>44173</v>
+      </c>
+      <c r="B227" s="5">
+        <v>2.8311000000000002</v>
+      </c>
+      <c r="C227" s="5">
+        <v>2.843</v>
+      </c>
+      <c r="D227" s="5">
+        <v>2.9897</v>
+      </c>
+      <c r="E227" s="5">
+        <v>3.0183</v>
+      </c>
+      <c r="F227" s="5">
+        <v>3.0604</v>
+      </c>
+      <c r="G227" s="5">
+        <v>3.1133000000000002</v>
+      </c>
+      <c r="H227" s="5">
+        <v>3.2054999999999998</v>
+      </c>
+      <c r="I227" s="5">
+        <v>3.2624</v>
+      </c>
+      <c r="J227" s="5">
+        <v>3.2610999999999999</v>
+      </c>
+      <c r="K227" s="5">
+        <v>3.2587000000000002</v>
+      </c>
+      <c r="L227" s="5">
+        <v>3.2576999999999998</v>
+      </c>
+      <c r="M227" s="5">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="N227" s="5">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="O227" s="5">
+        <v>3.83</v>
+      </c>
+      <c r="P227" s="8">
+        <f t="shared" si="6"/>
+        <v>14.439999999999964</v>
+      </c>
+      <c r="Q227" s="9">
+        <f t="shared" si="7"/>
+        <v>26.799999999999979</v>
+      </c>
+      <c r="T227" s="11">
+        <v>1.13896</v>
+      </c>
+      <c r="U227" s="5">
+        <v>3.3029000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>44174</v>
+      </c>
+      <c r="B228" s="5">
+        <v>2.8007</v>
+      </c>
+      <c r="C228" s="5">
+        <v>2.8412999999999999</v>
+      </c>
+      <c r="D228" s="5">
+        <v>2.9805000000000001</v>
+      </c>
+      <c r="E228" s="5">
+        <v>3.0110999999999999</v>
+      </c>
+      <c r="F228" s="5">
+        <v>3.0594000000000001</v>
+      </c>
+      <c r="G228" s="5">
+        <v>3.1185</v>
+      </c>
+      <c r="H228" s="5">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="I228" s="5">
+        <v>3.2675000000000001</v>
+      </c>
+      <c r="J228" s="5">
+        <v>3.2686999999999999</v>
+      </c>
+      <c r="K228" s="5">
+        <v>3.2692000000000001</v>
+      </c>
+      <c r="L228" s="5">
+        <v>3.2703000000000002</v>
+      </c>
+      <c r="M228" s="5">
+        <v>3.6362000000000001</v>
+      </c>
+      <c r="N228" s="5">
+        <v>3.7564000000000002</v>
+      </c>
+      <c r="O228" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="P228" s="8">
+        <f t="shared" si="6"/>
+        <v>15.180000000000016</v>
+      </c>
+      <c r="Q228" s="9">
+        <f t="shared" si="7"/>
+        <v>28.980000000000004</v>
+      </c>
+      <c r="T228" s="11">
+        <v>1.1983799999999998</v>
+      </c>
+      <c r="U228" s="5">
+        <v>3.2932999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>44175</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2.7604000000000002</v>
+      </c>
+      <c r="C229" s="5">
+        <v>2.7862</v>
+      </c>
+      <c r="D229" s="5">
+        <v>2.9337</v>
+      </c>
+      <c r="E229" s="5">
+        <v>2.9615999999999998</v>
+      </c>
+      <c r="F229" s="5">
+        <v>3.0251999999999999</v>
+      </c>
+      <c r="G229" s="5">
+        <v>3.1027999999999998</v>
+      </c>
+      <c r="H229" s="5">
+        <v>3.2061000000000002</v>
+      </c>
+      <c r="I229" s="5">
+        <v>3.2650999999999999</v>
+      </c>
+      <c r="J229" s="5">
+        <v>3.2637</v>
+      </c>
+      <c r="K229" s="5">
+        <v>3.2612999999999999</v>
+      </c>
+      <c r="L229" s="5">
+        <v>3.2601</v>
+      </c>
+      <c r="M229" s="5">
+        <v>3.6322000000000001</v>
+      </c>
+      <c r="N229" s="5">
+        <v>3.7547999999999999</v>
+      </c>
+      <c r="O229" s="5">
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="P229" s="8">
+        <f t="shared" si="6"/>
+        <v>15.730000000000022</v>
+      </c>
+      <c r="Q229" s="9">
+        <f t="shared" si="7"/>
+        <v>32.64</v>
+      </c>
+      <c r="T229" s="11">
+        <v>1.2158600000000002</v>
+      </c>
+      <c r="U229" s="5">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>44176</v>
+      </c>
+      <c r="B230" s="5">
+        <v>2.7812999999999999</v>
+      </c>
+      <c r="C230" s="5">
+        <v>2.8386999999999998</v>
+      </c>
+      <c r="D230" s="5">
+        <v>2.9679000000000002</v>
+      </c>
+      <c r="E230" s="5">
+        <v>2.9937</v>
+      </c>
+      <c r="F230" s="5">
+        <v>3.0575000000000001</v>
+      </c>
+      <c r="G230" s="5">
+        <v>3.1352000000000002</v>
+      </c>
+      <c r="H230" s="5">
+        <v>3.234</v>
+      </c>
+      <c r="I230" s="5">
+        <v>3.2898999999999998</v>
+      </c>
+      <c r="J230" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="K230" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="L230" s="5">
+        <v>3.2902</v>
+      </c>
+      <c r="M230" s="5">
+        <v>3.6522000000000001</v>
+      </c>
+      <c r="N230" s="5">
+        <v>3.7746</v>
+      </c>
+      <c r="O230" s="5">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="P230" s="8">
+        <f t="shared" si="6"/>
+        <v>15.49999999999998</v>
+      </c>
+      <c r="Q230" s="9">
+        <f t="shared" si="7"/>
+        <v>32.229999999999983</v>
+      </c>
+      <c r="T230" s="11">
+        <v>1.2888800000000002</v>
+      </c>
+      <c r="U230" s="5">
+        <v>3.2023000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B231" s="5">
+        <v>2.7776000000000001</v>
+      </c>
+      <c r="C231" s="5">
+        <v>2.8307000000000002</v>
+      </c>
+      <c r="D231" s="5">
+        <v>2.9698000000000002</v>
+      </c>
+      <c r="E231" s="5">
+        <v>2.9998999999999998</v>
+      </c>
+      <c r="F231" s="5">
+        <v>3.0632000000000001</v>
+      </c>
+      <c r="G231" s="5">
+        <v>3.1385000000000001</v>
+      </c>
+      <c r="H231" s="5">
+        <v>3.2370999999999999</v>
+      </c>
+      <c r="I231" s="5">
+        <v>3.2921</v>
+      </c>
+      <c r="J231" s="5">
+        <v>3.2915999999999999</v>
+      </c>
+      <c r="K231" s="5">
+        <v>3.2907000000000002</v>
+      </c>
+      <c r="L231" s="5">
+        <v>3.2902999999999998</v>
+      </c>
+      <c r="M231" s="5">
+        <v>3.6642000000000001</v>
+      </c>
+      <c r="N231" s="5">
+        <v>3.7846000000000002</v>
+      </c>
+      <c r="O231" s="5">
+        <v>3.8424999999999998</v>
+      </c>
+      <c r="P231" s="8">
+        <f t="shared" si="6"/>
+        <v>15.179999999999971</v>
+      </c>
+      <c r="Q231" s="9">
+        <f t="shared" si="7"/>
+        <v>32.049999999999955</v>
+      </c>
+      <c r="T231" s="11">
+        <v>1.3568200000000001</v>
+      </c>
+      <c r="U231" s="5">
+        <v>3.153</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B232" s="5">
+        <v>2.7521</v>
+      </c>
+      <c r="C232" s="5">
+        <v>2.7947000000000002</v>
+      </c>
+      <c r="D232" s="5">
+        <v>2.9331999999999998</v>
+      </c>
+      <c r="E232" s="5">
+        <v>2.9594999999999998</v>
+      </c>
+      <c r="F232" s="5">
+        <v>3.0213000000000001</v>
+      </c>
+      <c r="G232" s="5">
+        <v>3.0998999999999999</v>
+      </c>
+      <c r="H232" s="5">
+        <v>3.2128000000000001</v>
+      </c>
+      <c r="I232" s="5">
+        <v>3.2772999999999999</v>
+      </c>
+      <c r="J232" s="5">
+        <v>3.2766999999999999</v>
+      </c>
+      <c r="K232" s="5">
+        <v>3.2755999999999998</v>
+      </c>
+      <c r="L232" s="5">
+        <v>3.2753000000000001</v>
+      </c>
+      <c r="M232" s="5">
+        <v>3.6522000000000001</v>
+      </c>
+      <c r="N232" s="5">
+        <v>3.7742</v>
+      </c>
+      <c r="O232" s="5">
+        <v>3.835</v>
+      </c>
+      <c r="P232" s="8">
+        <f t="shared" si="6"/>
+        <v>17.54000000000002</v>
+      </c>
+      <c r="Q232" s="9">
+        <f t="shared" si="7"/>
+        <v>34.210000000000029</v>
+      </c>
+      <c r="T232" s="11">
+        <v>1.3758400000000002</v>
+      </c>
+      <c r="U232" s="5">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>44181</v>
+      </c>
+      <c r="B233" s="5">
+        <v>2.7216</v>
+      </c>
+      <c r="C233" s="5">
+        <v>2.7332999999999998</v>
+      </c>
+      <c r="D233" s="5">
+        <v>2.8860999999999999</v>
+      </c>
+      <c r="E233" s="5">
+        <v>2.9226999999999999</v>
+      </c>
+      <c r="F233" s="5">
+        <v>2.9937</v>
+      </c>
+      <c r="G233" s="5">
+        <v>3.0811000000000002</v>
+      </c>
+      <c r="H233" s="5">
+        <v>3.2002000000000002</v>
+      </c>
+      <c r="I233" s="5">
+        <v>3.2698</v>
+      </c>
+      <c r="J233" s="5">
+        <v>3.2730999999999999</v>
+      </c>
+      <c r="K233" s="5">
+        <v>3.2746</v>
+      </c>
+      <c r="L233" s="5">
+        <v>3.278</v>
+      </c>
+      <c r="M233" s="5">
+        <v>3.6541999999999999</v>
+      </c>
+      <c r="N233" s="5">
+        <v>3.7747999999999999</v>
+      </c>
+      <c r="O233" s="5">
+        <v>3.835</v>
+      </c>
+      <c r="P233" s="8">
+        <f t="shared" si="6"/>
+        <v>19.689999999999984</v>
+      </c>
+      <c r="Q233" s="9">
+        <f t="shared" si="7"/>
+        <v>39.190000000000012</v>
+      </c>
+      <c r="T233" s="11">
+        <v>1.36042</v>
+      </c>
+      <c r="U233" s="5">
+        <v>3.0213999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B234" s="5">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="C234" s="5">
+        <v>2.7343000000000002</v>
+      </c>
+      <c r="D234" s="5">
+        <v>2.8742999999999999</v>
+      </c>
+      <c r="E234" s="5">
+        <v>2.9539</v>
+      </c>
+      <c r="F234" s="5">
+        <v>3.0274000000000001</v>
+      </c>
+      <c r="G234" s="5">
+        <v>3.1053999999999999</v>
+      </c>
+      <c r="H234" s="5">
+        <v>3.2174</v>
+      </c>
+      <c r="I234" s="5">
+        <v>3.2797999999999998</v>
+      </c>
+      <c r="J234" s="5">
+        <v>3.2808999999999999</v>
+      </c>
+      <c r="K234" s="5">
+        <v>3.2814000000000001</v>
+      </c>
+      <c r="L234" s="5">
+        <v>3.2827000000000002</v>
+      </c>
+      <c r="M234" s="5">
+        <v>3.6623999999999999</v>
+      </c>
+      <c r="N234" s="5">
+        <v>3.7822</v>
+      </c>
+      <c r="O234" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="P234" s="8">
+        <f t="shared" si="6"/>
+        <v>17.730000000000025</v>
+      </c>
+      <c r="Q234" s="9">
+        <f t="shared" si="7"/>
+        <v>40.840000000000032</v>
+      </c>
+      <c r="T234" s="11">
+        <v>1.43492</v>
+      </c>
+      <c r="U234" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>